--- a/notebook/validate_exonuclease_assay/attach_dna_to_zif268_via_huh_tag/optimize_pcv2_zif268_expression/confirm_pcv2_activity/confirm_pcv2_cond.xlsx
+++ b/notebook/validate_exonuclease_assay/attach_dna_to_zif268_via_huh_tag/optimize_pcv2_zif268_expression/confirm_pcv2_activity/confirm_pcv2_cond.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
   <si>
     <t xml:space="preserve">PCV2-Zif268</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA (f12)</t>
+    <t xml:space="preserve">DNA – spacer (f12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA + spacer (f107)</t>
   </si>
   <si>
     <t xml:space="preserve">EDTA</t>
@@ -109,8 +112,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -131,62 +138,118 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.02"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/notebook/validate_exonuclease_assay/attach_dna_to_zif268_via_huh_tag/optimize_pcv2_zif268_expression/confirm_pcv2_activity/confirm_pcv2_cond.xlsx
+++ b/notebook/validate_exonuclease_assay/attach_dna_to_zif268_via_huh_tag/optimize_pcv2_zif268_expression/confirm_pcv2_activity/confirm_pcv2_cond.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t xml:space="preserve">PCV2-Zif268</t>
   </si>
@@ -31,10 +31,7 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA – spacer (f12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA + spacer (f107)</t>
+    <t xml:space="preserve">DNA + spacer (f134)</t>
   </si>
   <si>
     <t xml:space="preserve">EDTA</t>
@@ -138,10 +135,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -165,15 +162,6 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -191,15 +179,6 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -215,41 +194,6 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
